--- a/output/part1/grs_size_bm_op.xlsx
+++ b/output/part1/grs_size_bm_op.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.5058204527566</v>
+        <v>11.48757729316263</v>
       </c>
       <c r="C2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09917621353861839</v>
+        <v>0.006833957729854975</v>
       </c>
       <c r="E2" t="n">
-        <v>-32.21535976718076</v>
+        <v>1.155934970043793</v>
       </c>
       <c r="F2" t="n">
-        <v>1037.829404928888</v>
+        <v>1.336185654970144</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.251228480747523</v>
+        <v>11.48605387034872</v>
       </c>
       <c r="C3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09627499415281214</v>
+        <v>0.006823036354184879</v>
       </c>
       <c r="E3" t="n">
-        <v>-31.2729581272868</v>
+        <v>1.15408766566219</v>
       </c>
       <c r="F3" t="n">
-        <v>977.9979100310333</v>
+        <v>1.331918340033602</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.571958711161637</v>
+        <v>11.36876089678898</v>
       </c>
       <c r="C4" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09738628030671179</v>
+        <v>0.006847703136742046</v>
       </c>
       <c r="E4" t="n">
-        <v>-31.63393665202371</v>
+        <v>1.15825994733021</v>
       </c>
       <c r="F4" t="n">
-        <v>1000.705948104249</v>
+        <v>1.34156610558938</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.750282136430965</v>
+        <v>11.29719582210498</v>
       </c>
       <c r="C5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08767970311999923</v>
+        <v>0.007106744882627307</v>
       </c>
       <c r="E5" t="n">
-        <v>-28.48095404641041</v>
+        <v>1.202075760158821</v>
       </c>
       <c r="F5" t="n">
-        <v>811.1647433937414</v>
+        <v>1.444986133161408</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.330011105410009</v>
+        <v>11.36718673505485</v>
       </c>
       <c r="C6" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09472069317481156</v>
+        <v>0.006839232491263472</v>
       </c>
       <c r="E6" t="n">
-        <v>-30.76807531913974</v>
+        <v>1.156827173567979</v>
       </c>
       <c r="F6" t="n">
-        <v>946.674458844256</v>
+        <v>1.33824910950528</v>
       </c>
     </row>
   </sheetData>
